--- a/data/trans_orig/P16A_n_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>78820</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64271</v>
+        <v>62682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97025</v>
+        <v>96558</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1663650154907802</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1356573282792776</v>
+        <v>0.1323038620877675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2047898939045203</v>
+        <v>0.2038060729209096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -765,19 +765,19 @@
         <v>70147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55911</v>
+        <v>56738</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85676</v>
+        <v>85737</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2287289430056428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1823101209768978</v>
+        <v>0.1850082580993908</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2793650013683142</v>
+        <v>0.2795654843944533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>145</v>
@@ -786,19 +786,19 @@
         <v>148967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129096</v>
+        <v>128029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174284</v>
+        <v>170824</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1908709109117602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1654109567350646</v>
+        <v>0.164043653999566</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2233107950537077</v>
+        <v>0.2188765818573365</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>394956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376751</v>
+        <v>377218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409505</v>
+        <v>411094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8336349845092198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7952101060954798</v>
+        <v>0.7961939270790905</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8643426717207224</v>
+        <v>0.8676961379122327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -836,19 +836,19 @@
         <v>236533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>221004</v>
+        <v>220943</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250769</v>
+        <v>249942</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7712710569943573</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7206349986316858</v>
+        <v>0.7204345156055468</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8176898790231022</v>
+        <v>0.8149917419006095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>608</v>
@@ -857,19 +857,19 @@
         <v>631490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>606173</v>
+        <v>609633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>651361</v>
+        <v>652428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8091290890882398</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7766892049462922</v>
+        <v>0.7811234181426635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8345890432649353</v>
+        <v>0.8359563460004339</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>51411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39340</v>
+        <v>39306</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66543</v>
+        <v>66760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1401095167620272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.107212872817944</v>
+        <v>0.1071187719326304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1813475714090219</v>
+        <v>0.1819393914740425</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -982,19 +982,19 @@
         <v>86002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69020</v>
+        <v>70777</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102805</v>
+        <v>103200</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2312720033270114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1856059247899809</v>
+        <v>0.190330925153179</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2764570281528365</v>
+        <v>0.2775196196986371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -1003,19 +1003,19 @@
         <v>137413</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117598</v>
+        <v>118557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160648</v>
+        <v>159374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1859949680963103</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1591743933952111</v>
+        <v>0.1604730070835581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2174441981453549</v>
+        <v>0.2157208494534594</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>315523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>300391</v>
+        <v>300174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327594</v>
+        <v>327628</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8598904832379728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8186524285909779</v>
+        <v>0.8180606085259575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8927871271820558</v>
+        <v>0.8928812280673696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -1053,19 +1053,19 @@
         <v>285863</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>269060</v>
+        <v>268665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302845</v>
+        <v>301088</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7687279966729886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7235429718471635</v>
+        <v>0.7224803803013629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8143940752100191</v>
+        <v>0.809669074846821</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>580</v>
@@ -1074,19 +1074,19 @@
         <v>601386</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>578151</v>
+        <v>579425</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>621201</v>
+        <v>620242</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8140050319036897</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7825558018546451</v>
+        <v>0.7842791505465405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.840825606604789</v>
+        <v>0.8395269929164419</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>93366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77586</v>
+        <v>77673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112386</v>
+        <v>111738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1721393318154792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1430440862066748</v>
+        <v>0.1432048379100428</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2072052088317707</v>
+        <v>0.2060103535751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1199,19 +1199,19 @@
         <v>45233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33925</v>
+        <v>32966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57120</v>
+        <v>56914</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2695955594669734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2021995436405123</v>
+        <v>0.1964787542713418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3404408526639474</v>
+        <v>0.3392147362376687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1220,19 +1220,19 @@
         <v>138600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118999</v>
+        <v>119038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162418</v>
+        <v>161310</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1951639156682268</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1675642992956966</v>
+        <v>0.1676190673618906</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2287032499917832</v>
+        <v>0.227143035901415</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>449023</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430003</v>
+        <v>430651</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464803</v>
+        <v>464716</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8278606681845209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7927947911682296</v>
+        <v>0.7939896464249006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8569559137933254</v>
+        <v>0.8567951620899578</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -1270,19 +1270,19 @@
         <v>122549</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>110662</v>
+        <v>110868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133857</v>
+        <v>134816</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7304044405330266</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6595591473360523</v>
+        <v>0.6607852637623314</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7978004563594875</v>
+        <v>0.8035212457286582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>556</v>
@@ -1291,19 +1291,19 @@
         <v>571571</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>547753</v>
+        <v>548861</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591172</v>
+        <v>591133</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8048360843317732</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7712967500082177</v>
+        <v>0.7728569640985851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8324357007043034</v>
+        <v>0.8323809326381095</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>268279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>239373</v>
+        <v>239885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>296089</v>
+        <v>295768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2166450831810741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1933024626142137</v>
+        <v>0.1937161043384502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2391027323091743</v>
+        <v>0.2388430861107535</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>185</v>
@@ -1416,19 +1416,19 @@
         <v>186191</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163945</v>
+        <v>163723</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210342</v>
+        <v>209249</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2606680447584647</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2295227439349707</v>
+        <v>0.2292123233036065</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.294479396427019</v>
+        <v>0.2929485282977123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>462</v>
@@ -1437,19 +1437,19 @@
         <v>454470</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>417833</v>
+        <v>420486</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492525</v>
+        <v>493896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2327490665389007</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2139859001227043</v>
+        <v>0.2153442776861524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2522382269677802</v>
+        <v>0.2529402284809175</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>970055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>942245</v>
+        <v>942566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>998961</v>
+        <v>998449</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7833549168189259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7608972676908258</v>
+        <v>0.7611569138892466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8066975373857863</v>
+        <v>0.8062838956615499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>509</v>
@@ -1487,19 +1487,19 @@
         <v>528094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>503943</v>
+        <v>505036</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>550340</v>
+        <v>550562</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7393319552415353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.705520603572981</v>
+        <v>0.7070514717022877</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7704772560650293</v>
+        <v>0.7707876766963935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1456</v>
@@ -1508,19 +1508,19 @@
         <v>1498150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1460095</v>
+        <v>1458724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1534787</v>
+        <v>1532134</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7672509334610993</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7477617730322199</v>
+        <v>0.7470597715190825</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7860140998772956</v>
+        <v>0.7846557223138476</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>61587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48784</v>
+        <v>48637</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74896</v>
+        <v>76593</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1756839463757208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1391631544284248</v>
+        <v>0.1387442278305108</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2136490981898932</v>
+        <v>0.2184901157909216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -1633,19 +1633,19 @@
         <v>164598</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>142315</v>
+        <v>143031</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>184994</v>
+        <v>189216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2894021588836156</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2502241540622173</v>
+        <v>0.2514828107512567</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3252628447341732</v>
+        <v>0.3326860373962109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>221</v>
@@ -1654,19 +1654,19 @@
         <v>226185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>200928</v>
+        <v>201994</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>253080</v>
+        <v>252770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2460385014117574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2185650594318718</v>
+        <v>0.219723865215103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2752942984219048</v>
+        <v>0.2749569405896483</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>288968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>275659</v>
+        <v>273962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>301771</v>
+        <v>301918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8243160536242793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7863509018101069</v>
+        <v>0.7815098842090787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8608368455715752</v>
+        <v>0.8612557721694892</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>383</v>
@@ -1704,19 +1704,19 @@
         <v>404154</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>383758</v>
+        <v>379536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>426437</v>
+        <v>425721</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7105978411163844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.674737155265827</v>
+        <v>0.6673139626037889</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7497758459377828</v>
+        <v>0.7485171892487433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>658</v>
@@ -1725,19 +1725,19 @@
         <v>693122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>666227</v>
+        <v>666537</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>718379</v>
+        <v>717313</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7539614985882426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7247057015780951</v>
+        <v>0.7250430594103517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7814349405681282</v>
+        <v>0.780276134784897</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>16608</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9342</v>
+        <v>10015</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25711</v>
+        <v>27008</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05569341727510221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03132636510533114</v>
+        <v>0.0335850503683771</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08621944485943622</v>
+        <v>0.09056851707274234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>442</v>
@@ -1850,19 +1850,19 @@
         <v>454343</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>419751</v>
+        <v>419122</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>490613</v>
+        <v>485918</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.363834991810422</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3361340612721794</v>
+        <v>0.3356307377783221</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3928799917430506</v>
+        <v>0.3891203688388873</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>459</v>
@@ -1871,19 +1871,19 @@
         <v>470950</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>437510</v>
+        <v>434673</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>508103</v>
+        <v>506288</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.304435935424081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2828189841753597</v>
+        <v>0.280985024403879</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3284524884350113</v>
+        <v>0.3272792719601547</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>281593</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272490</v>
+        <v>271193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>288859</v>
+        <v>288186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9443065827248978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9137805551405638</v>
+        <v>0.9094314829272573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9686736348946687</v>
+        <v>0.9664149496316227</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>796</v>
@@ -1921,19 +1921,19 @@
         <v>794417</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>758147</v>
+        <v>762842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>829009</v>
+        <v>829638</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.636165008189578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6071200082569498</v>
+        <v>0.6108796311611129</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6638659387278206</v>
+        <v>0.6643692622216782</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1085</v>
@@ -1942,19 +1942,19 @@
         <v>1076010</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1038857</v>
+        <v>1040672</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1109450</v>
+        <v>1112287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.695564064575919</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6715475115649888</v>
+        <v>0.6727207280398456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7171810158246404</v>
+        <v>0.719014975596121</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>570071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>527966</v>
+        <v>528197</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>613572</v>
+        <v>610541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1743235429726551</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1614480497256643</v>
+        <v>0.1615186206496864</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1876257729786886</v>
+        <v>0.1866990249607098</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>978</v>
@@ -2067,19 +2067,19 @@
         <v>1006514</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>959933</v>
+        <v>959867</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1060537</v>
+        <v>1062072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2979504936839026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2841615667006767</v>
+        <v>0.2841420143439066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3139424754545824</v>
+        <v>0.314397087208232</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1560</v>
@@ -2088,19 +2088,19 @@
         <v>1576585</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1507293</v>
+        <v>1513830</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1649529</v>
+        <v>1640085</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2371405474909234</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2267180681027111</v>
+        <v>0.227701396201452</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2481124081556648</v>
+        <v>0.2466919342171588</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2700119</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2656618</v>
+        <v>2659649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2742224</v>
+        <v>2741993</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8256764570273449</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8123742270213115</v>
+        <v>0.8133009750392898</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8385519502743357</v>
+        <v>0.8384813793503134</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2318</v>
@@ -2138,19 +2138,19 @@
         <v>2371610</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2317587</v>
+        <v>2316052</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2418191</v>
+        <v>2418257</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7020495063160974</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6860575245454176</v>
+        <v>0.6856029127917681</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7158384332993234</v>
+        <v>0.7158579856560933</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4943</v>
@@ -2159,19 +2159,19 @@
         <v>5071729</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4998785</v>
+        <v>5008229</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5141021</v>
+        <v>5134484</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7628594525090766</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.751887591844335</v>
+        <v>0.753308065782841</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7732819318972888</v>
+        <v>0.7722986037985479</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>91779</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75821</v>
+        <v>75495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113963</v>
+        <v>112577</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2099188681255618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1734207528923303</v>
+        <v>0.1726737615598387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2606579700948531</v>
+        <v>0.2574891873209096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -2526,19 +2526,19 @@
         <v>78094</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62153</v>
+        <v>63623</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94139</v>
+        <v>94657</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2483489441359097</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1976523655572237</v>
+        <v>0.2023280041074917</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2993718236891693</v>
+        <v>0.3010213216915983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -2547,19 +2547,19 @@
         <v>169873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144143</v>
+        <v>146011</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>194154</v>
+        <v>196299</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2259958443725546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1917654420036603</v>
+        <v>0.1942499182960771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2582989415224258</v>
+        <v>0.2611526539901011</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>345432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>323248</v>
+        <v>324634</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361390</v>
+        <v>361716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7900811318744383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7393420299051467</v>
+        <v>0.7425108126790905</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8265792471076694</v>
+        <v>0.8273262384401615</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>214</v>
@@ -2597,19 +2597,19 @@
         <v>236360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220315</v>
+        <v>219797</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252301</v>
+        <v>250831</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7516510558640903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7006281763108311</v>
+        <v>0.6989786783084017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8023476344427765</v>
+        <v>0.7976719958925084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>537</v>
@@ -2618,19 +2618,19 @@
         <v>581792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557511</v>
+        <v>555366</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>607522</v>
+        <v>605654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7740041556274454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7417010584775746</v>
+        <v>0.7388473460098989</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8082345579963397</v>
+        <v>0.8057500817039235</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>87978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72069</v>
+        <v>71900</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107922</v>
+        <v>108175</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2100719680422616</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1720851745629171</v>
+        <v>0.1716812260271482</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2576953194073989</v>
+        <v>0.258298693787043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -2743,19 +2743,19 @@
         <v>95832</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79422</v>
+        <v>79270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114971</v>
+        <v>114476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2835183861401038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2349685794615489</v>
+        <v>0.2345196600482164</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3401395012633275</v>
+        <v>0.3386768106162419</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -2764,19 +2764,19 @@
         <v>183810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158933</v>
+        <v>158979</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>209028</v>
+        <v>210751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.242875139544384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2100048137529645</v>
+        <v>0.2100656237923255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2761974418413317</v>
+        <v>0.2784739834542628</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>330819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>310875</v>
+        <v>310622</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>346728</v>
+        <v>346897</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7899280319577384</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.742304680592601</v>
+        <v>0.7417013062129572</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8279148254370832</v>
+        <v>0.8283187739728521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>220</v>
@@ -2814,19 +2814,19 @@
         <v>242179</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>223040</v>
+        <v>223535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>258589</v>
+        <v>258741</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7164816138598963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6598604987366724</v>
+        <v>0.6613231893837581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7650314205384511</v>
+        <v>0.7654803399517836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>516</v>
@@ -2835,19 +2835,19 @@
         <v>572998</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>547780</v>
+        <v>546057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>597875</v>
+        <v>597829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.757124860455616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7238025581586683</v>
+        <v>0.7215260165457372</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7899951862470355</v>
+        <v>0.7899343762076745</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>193377</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170543</v>
+        <v>168673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218047</v>
+        <v>218470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3072324456941881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2709543825728604</v>
+        <v>0.2679836567520923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.346428585819674</v>
+        <v>0.3471004059891661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -2960,19 +2960,19 @@
         <v>97375</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82716</v>
+        <v>82488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113565</v>
+        <v>113893</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3743319230141264</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3179810689141833</v>
+        <v>0.317103532642668</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4365719210152219</v>
+        <v>0.437830845813946</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>265</v>
@@ -2981,19 +2981,19 @@
         <v>290751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263079</v>
+        <v>261842</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322062</v>
+        <v>320886</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3268543462279773</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.295745447412865</v>
+        <v>0.2943550807428598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.362053053549702</v>
+        <v>0.3607303704574402</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>436038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>411368</v>
+        <v>410945</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>458872</v>
+        <v>460742</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6927675543058119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.653571414180326</v>
+        <v>0.6528995940108339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7290456174271397</v>
+        <v>0.7320163432479077</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -3031,19 +3031,19 @@
         <v>162754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146564</v>
+        <v>146236</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177413</v>
+        <v>177641</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6256680769858736</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5634280789847782</v>
+        <v>0.562169154186054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6820189310858169</v>
+        <v>0.6828964673573319</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>570</v>
@@ -3052,19 +3052,19 @@
         <v>598793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>567482</v>
+        <v>568658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>626465</v>
+        <v>627702</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6731456537720226</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6379469464502981</v>
+        <v>0.6392696295425596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7042545525871357</v>
+        <v>0.7056449192571399</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>336095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>305014</v>
+        <v>306258</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>370248</v>
+        <v>371704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.289984627921875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2631676363044709</v>
+        <v>0.2642410410314932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3194522107416349</v>
+        <v>0.320708691321474</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>236</v>
@@ -3177,19 +3177,19 @@
         <v>256667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>231659</v>
+        <v>231097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>287023</v>
+        <v>286663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3347866704283382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3021675936318833</v>
+        <v>0.3014350991356073</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3743829306723643</v>
+        <v>0.3739130705355629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>542</v>
@@ -3198,19 +3198,19 @@
         <v>592762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>552589</v>
+        <v>550119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>632818</v>
+        <v>633583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3078214734484019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2869596261380102</v>
+        <v>0.2856772833535918</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3286229113899576</v>
+        <v>0.3290199498934671</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>822914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>788761</v>
+        <v>787305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>853995</v>
+        <v>852751</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.710015372078125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.680547789258365</v>
+        <v>0.6792913086785265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7368323636955292</v>
+        <v>0.735758958968507</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>475</v>
@@ -3248,19 +3248,19 @@
         <v>509990</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479634</v>
+        <v>479994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>534998</v>
+        <v>535560</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6652133295716618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6256170693276356</v>
+        <v>0.6260869294644371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6978324063681167</v>
+        <v>0.6985649008643926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1252</v>
@@ -3269,19 +3269,19 @@
         <v>1332905</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1292849</v>
+        <v>1292084</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1373078</v>
+        <v>1375548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6921785265515981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6713770886100425</v>
+        <v>0.6709800501065331</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7130403738619897</v>
+        <v>0.7143227166464082</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>132589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113531</v>
+        <v>113720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>153874</v>
+        <v>153974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.259674200679215</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2223503894568645</v>
+        <v>0.2227196553249389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3013617022018575</v>
+        <v>0.3015564362704538</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>330</v>
@@ -3394,19 +3394,19 @@
         <v>355265</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>328535</v>
+        <v>329055</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385147</v>
+        <v>384876</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4665201218551522</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4314194885461363</v>
+        <v>0.432101650249349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5057601295356946</v>
+        <v>0.5054042512729316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>455</v>
@@ -3415,19 +3415,19 @@
         <v>487854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>452856</v>
+        <v>452788</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>520660</v>
+        <v>525108</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3834973522934821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3559855713652879</v>
+        <v>0.3559327170582264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4092861215030006</v>
+        <v>0.4127822585647047</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>378007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>356722</v>
+        <v>356622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>397065</v>
+        <v>396876</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.740325799320785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6986382977981425</v>
+        <v>0.6984435637295464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7776496105431354</v>
+        <v>0.7772803446750612</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>373</v>
@@ -3465,19 +3465,19 @@
         <v>406257</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>376375</v>
+        <v>376646</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>432987</v>
+        <v>432467</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5334798781448478</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4942398704643054</v>
+        <v>0.4945957487270685</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5685805114538639</v>
+        <v>0.567898349750651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>735</v>
@@ -3486,19 +3486,19 @@
         <v>784264</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>751458</v>
+        <v>747010</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>819262</v>
+        <v>819330</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.616502647706518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5907138784969993</v>
+        <v>0.5872177414352954</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6440144286347121</v>
+        <v>0.6440672829417736</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>20795</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12491</v>
+        <v>12696</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31525</v>
+        <v>31944</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07791991957601703</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04680253626736187</v>
+        <v>0.04757186622071394</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1181245675874982</v>
+        <v>0.1196951316337529</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>502</v>
@@ -3611,19 +3611,19 @@
         <v>536149</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>504687</v>
+        <v>503806</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>571467</v>
+        <v>572189</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4832995126471738</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4549387648724599</v>
+        <v>0.4541451346058425</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5151361685877057</v>
+        <v>0.5157874847357865</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>521</v>
@@ -3632,19 +3632,19 @@
         <v>556944</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>517620</v>
+        <v>519375</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>591877</v>
+        <v>591921</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4046874808603139</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3761135148783591</v>
+        <v>0.3773886484806058</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4300704710791727</v>
+        <v>0.4301023779355966</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>246087</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235357</v>
+        <v>234938</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>254391</v>
+        <v>254186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9220800804239829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8818754324125017</v>
+        <v>0.8803048683662469</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.953197463732638</v>
+        <v>0.9524281337792858</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>542</v>
@@ -3682,19 +3682,19 @@
         <v>573202</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>537884</v>
+        <v>537162</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>604664</v>
+        <v>605545</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5167004873528261</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4848638314122944</v>
+        <v>0.4842125152642135</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5450612351275402</v>
+        <v>0.5458548653941576</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>788</v>
@@ -3703,19 +3703,19 @@
         <v>819289</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>784356</v>
+        <v>784312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>858613</v>
+        <v>856858</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5953125191396861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5699295289208274</v>
+        <v>0.5698976220644034</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6238864851216411</v>
+        <v>0.6226113515193944</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>862612</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>810481</v>
+        <v>809116</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>914669</v>
+        <v>920026</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2520849213107497</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.236850447065253</v>
+        <v>0.2364514546305753</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.267297681985584</v>
+        <v>0.2688633393491299</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1313</v>
@@ -3828,19 +3828,19 @@
         <v>1419382</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1360331</v>
+        <v>1363420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1480913</v>
+        <v>1479972</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3998119109808293</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3831784635342598</v>
+        <v>0.3840484049687655</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4171438495944606</v>
+        <v>0.4168789669723612</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2097</v>
@@ -3849,19 +3849,19 @@
         <v>2281994</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2192724</v>
+        <v>2201534</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2359082</v>
+        <v>2367288</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3273067613070095</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3145026632309183</v>
+        <v>0.3157662732192103</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3383635120365918</v>
+        <v>0.3395404507383451</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2559298</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2507241</v>
+        <v>2501884</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2611429</v>
+        <v>2612794</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7479150786892503</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7327023180144163</v>
+        <v>0.7311366606508701</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7631495529347478</v>
+        <v>0.7635485453694247</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1977</v>
@@ -3899,19 +3899,19 @@
         <v>2130743</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2069212</v>
+        <v>2070153</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2189794</v>
+        <v>2186705</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6001880890191706</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5828561504055394</v>
+        <v>0.5831210330276387</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6168215364657398</v>
+        <v>0.6159515950312344</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4398</v>
@@ -3920,19 +3920,19 @@
         <v>4690041</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4612953</v>
+        <v>4604747</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4779311</v>
+        <v>4770501</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6726932386929905</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.661636487963408</v>
+        <v>0.6604595492616548</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6854973367690809</v>
+        <v>0.6842337267807896</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>93961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77597</v>
+        <v>76199</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113787</v>
+        <v>112460</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2189767745508205</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1808410848585484</v>
+        <v>0.1775809587508587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2651797974141986</v>
+        <v>0.2620893689860543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -4287,19 +4287,19 @@
         <v>75745</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59955</v>
+        <v>60631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92583</v>
+        <v>93199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2182511215984367</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1727537714708988</v>
+        <v>0.1747026933963592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2667663397791434</v>
+        <v>0.2685421109210379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>155</v>
@@ -4308,19 +4308,19 @@
         <v>169706</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>148245</v>
+        <v>147475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>193446</v>
+        <v>193599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2186522980734207</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1910006532667152</v>
+        <v>0.190009500528518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2492388432195872</v>
+        <v>0.249436378447622</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>335131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315305</v>
+        <v>316632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>351495</v>
+        <v>352893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7810232254491795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7348202025858015</v>
+        <v>0.7379106310139457</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8191589151414517</v>
+        <v>0.8224190412491413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>263</v>
@@ -4358,19 +4358,19 @@
         <v>271310</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>254472</v>
+        <v>253856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>287100</v>
+        <v>286424</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7817488784015633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7332336602208563</v>
+        <v>0.731457889078962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8272462285291011</v>
+        <v>0.8252973066036406</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>573</v>
@@ -4379,19 +4379,19 @@
         <v>606441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>582701</v>
+        <v>582548</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>627902</v>
+        <v>628672</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7813477019265793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7507611567804128</v>
+        <v>0.7505636215523782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8089993467332849</v>
+        <v>0.8099904994714821</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>85221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68781</v>
+        <v>69083</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103574</v>
+        <v>103610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2259153465024552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.182332754260572</v>
+        <v>0.1831325860025636</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.274566530928111</v>
+        <v>0.2746628339526663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -4504,19 +4504,19 @@
         <v>90598</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74414</v>
+        <v>75833</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109494</v>
+        <v>108961</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2433639768820213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1998918777879666</v>
+        <v>0.2037034552124848</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2941238851721522</v>
+        <v>0.2926905086887472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -4525,19 +4525,19 @@
         <v>175819</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>151429</v>
+        <v>151940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>199169</v>
+        <v>203425</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2345819994418308</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2020406875307829</v>
+        <v>0.2027212024265246</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2657363340295182</v>
+        <v>0.2714147908896227</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>292006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273653</v>
+        <v>273617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>308446</v>
+        <v>308144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7740846534975449</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7254334690718891</v>
+        <v>0.7253371660473337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.817667245739428</v>
+        <v>0.8168674139974362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -4575,19 +4575,19 @@
         <v>281675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262779</v>
+        <v>263312</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>297859</v>
+        <v>296440</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7566360231179787</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7058761148278473</v>
+        <v>0.7073094913112529</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8001081222120333</v>
+        <v>0.7962965447875152</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>544</v>
@@ -4596,19 +4596,19 @@
         <v>573681</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>550331</v>
+        <v>546075</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>598071</v>
+        <v>597560</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7654180005581692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.734263665970482</v>
+        <v>0.7285852091103776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7979593124692173</v>
+        <v>0.7972787975734754</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>134662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115770</v>
+        <v>115022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154432</v>
+        <v>155104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.25801506196629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.221817416210644</v>
+        <v>0.2203848248961771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2958955071043289</v>
+        <v>0.2971830995348412</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -4721,19 +4721,19 @@
         <v>65095</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52469</v>
+        <v>52526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78139</v>
+        <v>79623</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3918470329006098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3158433961115263</v>
+        <v>0.3161847601183154</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4703677426770795</v>
+        <v>0.4792993841859559</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -4742,19 +4742,19 @@
         <v>199756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177075</v>
+        <v>175938</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222822</v>
+        <v>225348</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2903280896326675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2573627489196991</v>
+        <v>0.2557097313533291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3238520860751303</v>
+        <v>0.3275231211867368</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>387252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>367482</v>
+        <v>366810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>406144</v>
+        <v>406892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.74198493803371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7041044928956711</v>
+        <v>0.7028169004651589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7781825837893559</v>
+        <v>0.7796151751038229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -4792,19 +4792,19 @@
         <v>101028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87984</v>
+        <v>86500</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113654</v>
+        <v>113597</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6081529670993903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5296322573229206</v>
+        <v>0.5207006158140443</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6841566038884738</v>
+        <v>0.6838152398816846</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>464</v>
@@ -4813,19 +4813,19 @@
         <v>488280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>465214</v>
+        <v>462688</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>510961</v>
+        <v>512098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7096719103673326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6761479139248697</v>
+        <v>0.6724768788132633</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7426372510803009</v>
+        <v>0.7442902686466711</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>285561</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>257633</v>
+        <v>258734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>316252</v>
+        <v>319407</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2483923544339359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2240991242893811</v>
+        <v>0.2250568606318793</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2750880161171944</v>
+        <v>0.2778328548525072</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>210</v>
@@ -4938,19 +4938,19 @@
         <v>225155</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>199668</v>
+        <v>200534</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>252141</v>
+        <v>249892</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2726253728509648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2417646667808172</v>
+        <v>0.2428139818035453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3053017638641041</v>
+        <v>0.302577707350719</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>493</v>
@@ -4959,19 +4959,19 @@
         <v>510716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>473474</v>
+        <v>474199</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>554886</v>
+        <v>553010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2585231166374545</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2396713026157541</v>
+        <v>0.2400384019524597</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2808818012964145</v>
+        <v>0.2799321623319773</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>864077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>833386</v>
+        <v>830231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>892005</v>
+        <v>890904</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7516076455660642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7249119838828056</v>
+        <v>0.7221671451474928</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7759008757106189</v>
+        <v>0.7749431393681208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>588</v>
@@ -5009,19 +5009,19 @@
         <v>600721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>573735</v>
+        <v>575984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>626208</v>
+        <v>625342</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7273746271490352</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6946982361358959</v>
+        <v>0.697422292649281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7582353332191828</v>
+        <v>0.7571860181964546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1408</v>
@@ -5030,19 +5030,19 @@
         <v>1464798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1420628</v>
+        <v>1422504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1502040</v>
+        <v>1501315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7414768833625455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7191181987035853</v>
+        <v>0.7200678376680226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7603286973842459</v>
+        <v>0.7599615980475404</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>158429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139652</v>
+        <v>137115</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>180769</v>
+        <v>181679</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2552401664662668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2249894740058611</v>
+        <v>0.2209012544575917</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.291231704763205</v>
+        <v>0.2926966544387421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -5155,19 +5155,19 @@
         <v>303108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>277963</v>
+        <v>278051</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330245</v>
+        <v>331238</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4105793993524319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3765187380190079</v>
+        <v>0.3766386929916156</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4473385703493424</v>
+        <v>0.4486837799785512</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>441</v>
@@ -5176,19 +5176,19 @@
         <v>461537</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>426064</v>
+        <v>424829</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>499354</v>
+        <v>495463</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3396275802044873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3135244463258159</v>
+        <v>0.3126154916521043</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3674557126672603</v>
+        <v>0.3645921997191897</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>462277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>439937</v>
+        <v>439027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>481054</v>
+        <v>483591</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7447598335337331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7087682952367946</v>
+        <v>0.707303345561258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7750105259941388</v>
+        <v>0.7790987455424082</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>423</v>
@@ -5226,19 +5226,19 @@
         <v>435136</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>407999</v>
+        <v>407006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>460281</v>
+        <v>460193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5894206006475681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5526614296506577</v>
+        <v>0.5513162200214489</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6234812619809922</v>
+        <v>0.6233613070083844</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>855</v>
@@ -5247,19 +5247,19 @@
         <v>897413</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>859596</v>
+        <v>863487</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>932886</v>
+        <v>934121</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6603724197955128</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6325442873327403</v>
+        <v>0.6354078002808105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6864755536741841</v>
+        <v>0.6873845083478958</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>19285</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12293</v>
+        <v>11809</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29706</v>
+        <v>29826</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06716134994981443</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04281231166341024</v>
+        <v>0.04112569661781156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1034543846478325</v>
+        <v>0.103870166642541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>403</v>
@@ -5372,19 +5372,19 @@
         <v>467628</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>436451</v>
+        <v>432363</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>503054</v>
+        <v>503752</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4321788344492622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4033649611364648</v>
+        <v>0.3995871050635332</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4649186659198487</v>
+        <v>0.4655642359711251</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>421</v>
@@ -5393,19 +5393,19 @@
         <v>486913</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>450376</v>
+        <v>449370</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>521770</v>
+        <v>526154</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3556266170957267</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3289409996448717</v>
+        <v>0.3282062872176484</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.381085139012713</v>
+        <v>0.3842870200099285</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>267860</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257439</v>
+        <v>257319</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>274852</v>
+        <v>275336</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9328386500501855</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8965456153521675</v>
+        <v>0.8961298333574595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9571876883365897</v>
+        <v>0.9588743033821885</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>589</v>
@@ -5443,19 +5443,19 @@
         <v>614397</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>578971</v>
+        <v>578273</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>645574</v>
+        <v>649662</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5678211655507378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5350813340801513</v>
+        <v>0.5344357640288749</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5966350388635352</v>
+        <v>0.6004128949364668</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>843</v>
@@ -5464,19 +5464,19 @@
         <v>882257</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>847400</v>
+        <v>843016</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>918794</v>
+        <v>919800</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6443733829042733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.618914860987287</v>
+        <v>0.6157129799900716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6710590003551282</v>
+        <v>0.6717937127823516</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>777120</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>730800</v>
+        <v>732255</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>824901</v>
+        <v>832664</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.229528482547495</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2158475814081573</v>
+        <v>0.2162774245002379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2436410777467602</v>
+        <v>0.2459338262975127</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1095</v>
@@ -5589,19 +5589,19 @@
         <v>1227329</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1164667</v>
+        <v>1170822</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1282679</v>
+        <v>1283445</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3475280230608049</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3297847967553775</v>
+        <v>0.3315276869583832</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3632009269703865</v>
+        <v>0.3634178855311124</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1863</v>
@@ -5610,19 +5610,19 @@
         <v>2004448</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1929278</v>
+        <v>1927488</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2085513</v>
+        <v>2086580</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2897724510139775</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2789055639990213</v>
+        <v>0.2786467588734303</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3014915619084063</v>
+        <v>0.3016458166950009</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2608602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2560821</v>
+        <v>2553058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2654922</v>
+        <v>2653467</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.770471517452505</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7563589222532398</v>
+        <v>0.7540661737024873</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7841524185918425</v>
+        <v>0.7837225754997621</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2231</v>
@@ -5660,19 +5660,19 @@
         <v>2304267</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2248917</v>
+        <v>2248151</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2366929</v>
+        <v>2360774</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6524719769391951</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6367990730296136</v>
+        <v>0.6365821144688875</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6702152032446225</v>
+        <v>0.6684723130416167</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4687</v>
@@ -5681,19 +5681,19 @@
         <v>4912870</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4831805</v>
+        <v>4830738</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4988040</v>
+        <v>4989830</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7102275489860225</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6985084380915937</v>
+        <v>0.6983541833049992</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7210944360009786</v>
+        <v>0.7213532411265698</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>153134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133483</v>
+        <v>133145</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174974</v>
+        <v>174805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2781125751383871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2424243257172665</v>
+        <v>0.2418096583320367</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.317778007388177</v>
+        <v>0.3174702858151167</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>234</v>
@@ -6048,19 +6048,19 @@
         <v>151492</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133821</v>
+        <v>134701</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169127</v>
+        <v>167175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3101734009766162</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2739928812065585</v>
+        <v>0.2757938621850921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.346279546875923</v>
+        <v>0.3422827540722496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -6069,19 +6069,19 @@
         <v>304626</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>278134</v>
+        <v>277747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332049</v>
+        <v>332408</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2931832363583311</v>
+        <v>0.293183236358331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2676868092648703</v>
+        <v>0.2673135728965759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3195762500398768</v>
+        <v>0.3199220208418867</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>397484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>375644</v>
+        <v>375813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417135</v>
+        <v>417473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7218874248616129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6822219926118223</v>
+        <v>0.6825297141848832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7575756742827333</v>
+        <v>0.7581903416679631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>452</v>
@@ -6119,19 +6119,19 @@
         <v>336919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319284</v>
+        <v>321236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>354590</v>
+        <v>353710</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6898265990233838</v>
+        <v>0.6898265990233837</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6537204531240777</v>
+        <v>0.6577172459277504</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7260071187934419</v>
+        <v>0.7242061378149079</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>827</v>
@@ -6140,19 +6140,19 @@
         <v>734403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>706980</v>
+        <v>706621</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>760895</v>
+        <v>761282</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.706816763641669</v>
+        <v>0.7068167636416689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6804237499601231</v>
+        <v>0.6800779791581137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7323131907351296</v>
+        <v>0.7326864271034244</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>130760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111232</v>
+        <v>112080</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149627</v>
+        <v>150415</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2706063377175018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2301932335996966</v>
+        <v>0.2319482100279059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3096506737630692</v>
+        <v>0.3112806982212206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>209</v>
@@ -6265,19 +6265,19 @@
         <v>136776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>119791</v>
+        <v>122438</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>153096</v>
+        <v>155235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3232374689047881</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2830987165493561</v>
+        <v>0.2893540478705569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3618056284939562</v>
+        <v>0.3668620163958541</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>363</v>
@@ -6286,19 +6286,19 @@
         <v>267536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>242524</v>
+        <v>242771</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291644</v>
+        <v>292491</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2951778213421792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2675816947494958</v>
+        <v>0.2678545733392193</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3217769141562784</v>
+        <v>0.3227113525177085</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>352452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>333585</v>
+        <v>332797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>371980</v>
+        <v>371132</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7293936622824982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6903493262369303</v>
+        <v>0.6887193017787794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7698067664003033</v>
+        <v>0.768051789972094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>381</v>
@@ -6336,19 +6336,19 @@
         <v>286367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>270047</v>
+        <v>267908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>303352</v>
+        <v>300705</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6767625310952119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.638194371506044</v>
+        <v>0.6331379836041459</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.716901283450644</v>
+        <v>0.7106459521294434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>708</v>
@@ -6357,19 +6357,19 @@
         <v>638819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>614711</v>
+        <v>613864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>663831</v>
+        <v>663584</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7048221786578208</v>
+        <v>0.7048221786578209</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6782230858437216</v>
+        <v>0.6772886474822915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7324183052505041</v>
+        <v>0.7321454266607806</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>151486</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132341</v>
+        <v>132934</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>171692</v>
+        <v>172164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3212087607444989</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2806144730583101</v>
+        <v>0.2818706584148529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.364054298578281</v>
+        <v>0.3650534832755502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -6482,19 +6482,19 @@
         <v>96274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85008</v>
+        <v>86810</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107771</v>
+        <v>107646</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5134682758716935</v>
+        <v>0.5134682758716934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4533821523438109</v>
+        <v>0.4629946498387243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.574790184221232</v>
+        <v>0.5741217254448703</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>336</v>
@@ -6503,19 +6503,19 @@
         <v>247760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225424</v>
+        <v>224855</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>270609</v>
+        <v>273032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3759009847816007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3420136345715534</v>
+        <v>0.3411506743637354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4105675064470917</v>
+        <v>0.4142444585668477</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>320126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>299920</v>
+        <v>299448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>339271</v>
+        <v>338678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6787912392555011</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.635945701421719</v>
+        <v>0.63494651672445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7193855269416899</v>
+        <v>0.7181293415851475</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -6553,19 +6553,19 @@
         <v>91223</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79726</v>
+        <v>79851</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>102489</v>
+        <v>100687</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4865317241283065</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.425209815778768</v>
+        <v>0.4258782745551297</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5466178476561889</v>
+        <v>0.5370053501612756</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>441</v>
@@ -6574,19 +6574,19 @@
         <v>411349</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>388500</v>
+        <v>386077</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>433685</v>
+        <v>434254</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6240990152183995</v>
+        <v>0.6240990152183994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5894324935529084</v>
+        <v>0.5857555414331524</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6579863654284467</v>
+        <v>0.6588493256362646</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>390771</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>359199</v>
+        <v>359599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>423491</v>
+        <v>425504</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3452522895505172</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3173573641658544</v>
+        <v>0.3177111524535031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3741601455831283</v>
+        <v>0.3759394910216681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>530</v>
@@ -6699,19 +6699,19 @@
         <v>328892</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>305431</v>
+        <v>305825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>354487</v>
+        <v>353962</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3818947136385142</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3546528528896143</v>
+        <v>0.3551109852678347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4116149327741883</v>
+        <v>0.4110045743949655</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>985</v>
@@ -6720,19 +6720,19 @@
         <v>719663</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>676713</v>
+        <v>677037</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>759992</v>
+        <v>764974</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3610857144530177</v>
+        <v>0.3610857144530178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3395358821873916</v>
+        <v>0.3396983356351749</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3813202326417667</v>
+        <v>0.38382000533402</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>741072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>708352</v>
+        <v>706339</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>772644</v>
+        <v>772244</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6547477104494828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6258398544168715</v>
+        <v>0.6240605089783318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6826426358341454</v>
+        <v>0.6822888475464967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>700</v>
@@ -6770,19 +6770,19 @@
         <v>532319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>506724</v>
+        <v>507249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>555780</v>
+        <v>555386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6181052863614859</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5883850672258116</v>
+        <v>0.5889954256050338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6453471471103858</v>
+        <v>0.6448890147321651</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1363</v>
@@ -6791,19 +6791,19 @@
         <v>1273391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1233062</v>
+        <v>1228080</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1316341</v>
+        <v>1316017</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6389142855469822</v>
+        <v>0.6389142855469823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6186797673582333</v>
+        <v>0.6161799946659797</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6604641178126082</v>
+        <v>0.660301664364825</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>176260</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>154977</v>
+        <v>155839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202456</v>
+        <v>202405</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3103372219843392</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2728641927896225</v>
+        <v>0.274382517913737</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3564583678267476</v>
+        <v>0.3563692658734413</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>693</v>
@@ -6916,19 +6916,19 @@
         <v>399519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>376183</v>
+        <v>373862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>423163</v>
+        <v>422286</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4808559450305205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.452769099324091</v>
+        <v>0.449975713690391</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5093131530098127</v>
+        <v>0.5082578494747846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>893</v>
@@ -6937,19 +6937,19 @@
         <v>575780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>540207</v>
+        <v>544008</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>610383</v>
+        <v>607695</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4116198253931905</v>
+        <v>0.4116198253931904</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3861894243755832</v>
+        <v>0.3889069578068489</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.436357256010285</v>
+        <v>0.4344358537976093</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>391704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>365508</v>
+        <v>365559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>412987</v>
+        <v>412125</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.689662778015661</v>
+        <v>0.6896627780156608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6435416321732527</v>
+        <v>0.6436307341265588</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7271358072103777</v>
+        <v>0.7256174820862631</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>597</v>
@@ -6987,19 +6987,19 @@
         <v>431331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>407687</v>
+        <v>408564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>454667</v>
+        <v>456988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5191440549694796</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4906868469901872</v>
+        <v>0.4917421505252154</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5472309006759086</v>
+        <v>0.5500242863096081</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>944</v>
@@ -7008,19 +7008,19 @@
         <v>823034</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>788431</v>
+        <v>791119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>858607</v>
+        <v>854806</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5883801746068095</v>
+        <v>0.5883801746068094</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.563642743989715</v>
+        <v>0.5655641462023906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6138105756244168</v>
+        <v>0.6110930421931511</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>24472</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12780</v>
+        <v>13939</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40183</v>
+        <v>41968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1031595235423481</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05387167268882032</v>
+        <v>0.05875660988420394</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1693856256020161</v>
+        <v>0.1769120809887091</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>612</v>
@@ -7133,19 +7133,19 @@
         <v>358347</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>331397</v>
+        <v>332344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>384414</v>
+        <v>386044</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4244410285775329</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3925197161118076</v>
+        <v>0.3936413827490434</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4553152791417093</v>
+        <v>0.4572460982389875</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>629</v>
@@ -7154,19 +7154,19 @@
         <v>382820</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>352593</v>
+        <v>352760</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>415993</v>
+        <v>416434</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3539682849156481</v>
+        <v>0.353968284915648</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3260192919658686</v>
+        <v>0.3261735889108947</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.384641163931018</v>
+        <v>0.3850494159332116</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>212756</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197045</v>
+        <v>195260</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224448</v>
+        <v>223289</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8968404764576519</v>
+        <v>0.8968404764576517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.830614374397984</v>
+        <v>0.8230879190112904</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9461283273111797</v>
+        <v>0.9412433901157959</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>547</v>
@@ -7204,19 +7204,19 @@
         <v>485934</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>459867</v>
+        <v>458237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>512884</v>
+        <v>511937</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.575558971422467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5446847208582906</v>
+        <v>0.5427539017610123</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6074802838881924</v>
+        <v>0.6063586172509562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>642</v>
@@ -7225,19 +7225,19 @@
         <v>698689</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>665516</v>
+        <v>665075</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>728916</v>
+        <v>728749</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6460317150843521</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.615358836068982</v>
+        <v>0.6149505840667878</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6739807080341316</v>
+        <v>0.6738264110891051</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1026884</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>974202</v>
+        <v>971730</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1084709</v>
+        <v>1084121</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2982980117782407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2829944419193035</v>
+        <v>0.2822764866727376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3150957314614143</v>
+        <v>0.3149246637329605</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2432</v>
@@ -7350,19 +7350,19 @@
         <v>1471300</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1419335</v>
+        <v>1421191</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1521822</v>
+        <v>1518999</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4047155772056878</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3904213011362928</v>
+        <v>0.3909319336280019</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4186127411973278</v>
+        <v>0.4178362967709157</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3619</v>
@@ -7371,19 +7371,19 @@
         <v>2498184</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2417766</v>
+        <v>2425310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2568794</v>
+        <v>2580099</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3529570739851767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3415951258396496</v>
+        <v>0.3426610698861132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3629332662380105</v>
+        <v>0.3645305425063934</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2415592</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2357767</v>
+        <v>2358355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2468274</v>
+        <v>2470746</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7017019882217594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6849042685385854</v>
+        <v>0.6850753362670394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7170055580806965</v>
+        <v>0.7177235133272624</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2812</v>
@@ -7421,19 +7421,19 @@
         <v>2164093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2113571</v>
+        <v>2116394</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2216058</v>
+        <v>2214202</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5952844227943123</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5813872588026723</v>
+        <v>0.5821637032290842</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6095786988637072</v>
+        <v>0.6090680663719982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4925</v>
@@ -7442,19 +7442,19 @@
         <v>4579685</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4509075</v>
+        <v>4497770</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4660103</v>
+        <v>4652559</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6470429260148233</v>
+        <v>0.6470429260148232</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6370667337619887</v>
+        <v>0.6354694574936067</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6584048741603497</v>
+        <v>0.6573389301138869</v>
       </c>
     </row>
     <row r="24">
